--- a/Docs/Lab01/Lab01_ReviewReport.xlsx
+++ b/Docs/Lab01/Lab01_ReviewReport.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EMANUEL\Desktop\01_Tasks\Docs\Lab01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8363B8EB-D6D5-49CF-A4A8-72D023F33D23}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79386E30-249C-4D8E-ACA8-3B3B747219E4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="11496" tabRatio="650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="97">
   <si>
     <t>Document  Title:</t>
   </si>
@@ -133,18 +133,9 @@
     <t>09.03.2025</t>
   </si>
   <si>
-    <t>R01</t>
-  </si>
-  <si>
     <t>R02</t>
   </si>
   <si>
-    <t>R03</t>
-  </si>
-  <si>
-    <t>R04</t>
-  </si>
-  <si>
     <t>R05</t>
   </si>
   <si>
@@ -154,24 +145,6 @@
     <t>R07</t>
   </si>
   <si>
-    <t>Nu se menționează aspecte importante precum prioritizarea task-urilor, categorii/etichete sau gestionarea suprapunerilor de task-uri</t>
-  </si>
-  <si>
-    <t>Nu se specifică modul de interacțiune cu aplicația (CLI, GUI, API), tipul exact al fișierului utilizat (TXT, JSON, CSV) și dacă utilizatorul poate primi notificări/remindere</t>
-  </si>
-  <si>
-    <t>Enunțul menționează că un task repetitiv se definește printr-un interval de ore și minute, dar acest model nu este suficient pentru a acoperi scenarii reale (ex: repetare zilnică, săptămânală, lunară)</t>
-  </si>
-  <si>
-    <t>Nu se precizează cum ar trebui inițializat sistemul la prima rulare – dacă fișierul de date lipsește, trebuie creat automat sau utilizatorul trebuie să-l genereze manual?</t>
-  </si>
-  <si>
-    <t>Funcționalitățile nu explică detaliat ce se întâmplă în anumite situații (de exemplu, ce se întâmplă dacă utilizatorul încearcă să șteargă un task inexistent? Sau cum se face modificarea unui task – utilizatorul trebuie să rescrie tot task-ul sau poate modifica doar anumite câmpuri?)</t>
-  </si>
-  <si>
-    <t>Cerințele nu menționează dacă utilizatorul poate căuta task-uri după descriere, filtra task-urile după criterii specifice sau vizualiza statistici despre activitatea sa</t>
-  </si>
-  <si>
     <t>Nu este specificat pe ce sistem de operare trebuie să ruleze aplicația (Windows, Linux etc.), dacă este o aplicație desktop, web sau mobilă</t>
   </si>
   <si>
@@ -206,19 +179,168 @@
   </si>
   <si>
     <t>10.03.2025</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Nu este specificata o strategie de gestiune a erorilor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lipsesc operatiile CRUD </t>
+  </si>
+  <si>
+    <t>Relatii ambigue datorata folosirii prea multor sageti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C03 </t>
+  </si>
+  <si>
+    <t>Notificator.java/27</t>
+  </si>
+  <si>
+    <t>while loop nu se termina niciodata</t>
+  </si>
+  <si>
+    <t>C02</t>
+  </si>
+  <si>
+    <t>C08</t>
+  </si>
+  <si>
+    <t>C09</t>
+  </si>
+  <si>
+    <t>Notificator.java/41</t>
+  </si>
+  <si>
+    <t>logica if-urilor depinde una de cealalta</t>
+  </si>
+  <si>
+    <t>se da throw la erori dar nu intr-un format user friendly</t>
+  </si>
+  <si>
+    <t>Controller.java/36</t>
+  </si>
+  <si>
+    <t>table view nu este parametriza, este folosit generic</t>
+  </si>
+  <si>
+    <t>12.03.2025</t>
+  </si>
+  <si>
+    <t>Task.java</t>
+  </si>
+  <si>
+    <t>clone should not be overridden</t>
+  </si>
+  <si>
+    <t>prea multe if-uri greu de urmarit in nextTimeAfter()</t>
+  </si>
+  <si>
+    <t>Cognitive Complexity of methods should not be too high</t>
+  </si>
+  <si>
+    <t>conditii simplificate</t>
+  </si>
+  <si>
+    <t>Boolean checks should not be inverted</t>
+  </si>
+  <si>
+    <t>!(this.interval == 0)</t>
+  </si>
+  <si>
+    <t>this.interval != 0</t>
+  </si>
+  <si>
+    <t>metoda clone overriden</t>
+  </si>
+  <si>
+    <t>am folosit un copy constructor</t>
+  </si>
+  <si>
+    <t>TaskList.java</t>
+  </si>
+  <si>
+    <t>Abstract methods should not be redundant</t>
+  </si>
+  <si>
+    <t>Nu are rost să definești redundant o metodă abstractă cu aceeași semnătură ca o metodă dintr-o interfață pe care clasa o implementează.</t>
+  </si>
+  <si>
+    <t>Fields in a "Serializable" class should either be transient or serializable</t>
+  </si>
+  <si>
+    <t>LinkedTaskList.java</t>
+  </si>
+  <si>
+    <t>Node implementeaza Serializable</t>
+  </si>
+  <si>
+    <t>TaskIO.java</t>
+  </si>
+  <si>
+    <t>Try-with-resources should be used</t>
+  </si>
+  <si>
+    <t>se foloseste try simplu</t>
+  </si>
+  <si>
+    <t>am folosit try cu resurse pentru a se inchide acele resurse care nu mai trebuie folosite, pentru a nu crede sistemul ca inca le folosim</t>
+  </si>
+  <si>
+    <t>Constant names should comply with a naming convention</t>
+  </si>
+  <si>
+    <t>numele constantelor nu este la fel</t>
+  </si>
+  <si>
+    <t>denumirea constantelor este consistenta, toate sunt denumite complet, fara prescurtari</t>
+  </si>
+  <si>
+    <t>Utility classes should not have public constructors</t>
+  </si>
+  <si>
+    <t>Pentru a preveni instanțierea clasei, ar trebui să definesc un constructor non-public. Astfel, compilerul nu va genera implicit un constructor public fără parametri.</t>
+  </si>
+  <si>
+    <t>avem constructor default si se poate instantia clasa</t>
+  </si>
+  <si>
+    <t>Funcționalitățile nu explică detaliat ce se întâmplă în anumite situații (de exemplu cum se face modificarea unui task – utilizatorul trebuie să rescrie tot task-ul sau poate modifica doar anumite câmpuri?)</t>
+  </si>
+  <si>
+    <t>Nu se specifică modul de interacțiune cu aplicația (CLI, GUI, API), tipul exact al fișierului utilizat (TXT, JSON, CSV).</t>
+  </si>
+  <si>
+    <t>Cerințele nu menționează cum poate utilizatorul sa caute un task(dupa ce criterii)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -404,80 +526,82 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -821,8 +945,8 @@
   </sheetPr>
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -842,19 +966,19 @@
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="H1" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
       <c r="H2" s="3"/>
       <c r="I2" s="19" t="s">
         <v>30</v>
@@ -878,10 +1002,10 @@
       <c r="C4" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="26" t="s">
+      <c r="D4" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="26"/>
+      <c r="E4" s="27"/>
       <c r="H4" s="17" t="s">
         <v>21</v>
       </c>
@@ -896,10 +1020,10 @@
       <c r="C5" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="27" t="s">
+      <c r="D5" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="28"/>
+      <c r="E5" s="29"/>
       <c r="H5" s="17" t="s">
         <v>22</v>
       </c>
@@ -911,19 +1035,19 @@
       <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="23" t="s">
+      <c r="D6" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="E6" s="23"/>
+      <c r="E6" s="24"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="23" t="s">
+      <c r="D7" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="23"/>
+      <c r="E7" s="24"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B9" s="10" t="s">
@@ -939,81 +1063,69 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B10" s="3">
         <v>1</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>36</v>
-      </c>
+      <c r="C10" s="1"/>
       <c r="D10" s="1"/>
-      <c r="E10" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B11" s="3">
         <f>B10+1</f>
         <v>2</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B12" s="3">
         <f t="shared" ref="B12:B25" si="0">B11+1</f>
         <v>3</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>38</v>
-      </c>
+      <c r="C12" s="1"/>
       <c r="D12" s="1"/>
-      <c r="E12" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B13" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>39</v>
-      </c>
+      <c r="C13" s="1"/>
       <c r="D13" s="1"/>
-      <c r="E13" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="B14" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B15" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="2" t="s">
-        <v>48</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
@@ -1022,11 +1134,11 @@
         <v>7</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="2" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.3">
@@ -1141,7 +1253,7 @@
   <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1160,19 +1272,19 @@
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="H1" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
       <c r="H2" s="3"/>
       <c r="I2" s="19" t="s">
         <v>30</v>
@@ -1185,31 +1297,39 @@
       <c r="H3" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
+      <c r="I3" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" s="17">
+        <v>232</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="29" t="s">
+      <c r="D4" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="29"/>
+      <c r="E4" s="30"/>
       <c r="H4" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
+      <c r="I4" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" s="3">
+        <v>232</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="30" t="s">
+      <c r="D5" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="31"/>
+      <c r="E5" s="32"/>
       <c r="H5" s="17" t="s">
         <v>22</v>
       </c>
@@ -1221,19 +1341,19 @@
       <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" s="23"/>
+      <c r="D6" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="24"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="E7" s="23"/>
+      <c r="D7" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" s="24"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B9" s="10" t="s">
@@ -1254,10 +1374,12 @@
         <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
+      <c r="E10" s="2" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B11" s="3">
@@ -1265,10 +1387,12 @@
         <v>2</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
+      <c r="E11" s="2" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B12" s="3">
@@ -1276,10 +1400,12 @@
         <v>3</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B13" s="3">
@@ -1287,21 +1413,25 @@
         <v>4</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B14" s="3">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B14" s="3">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B15" s="3">
@@ -1309,10 +1439,12 @@
         <v>6</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="D15" s="1"/>
-      <c r="E15" s="2"/>
+      <c r="E15" s="2" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B16" s="3">
@@ -1320,10 +1452,12 @@
         <v>7</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
+      <c r="E16" s="2" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B17" s="3">
@@ -1331,21 +1465,25 @@
         <v>8</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="E17" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B18" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="D18" s="1"/>
-      <c r="E18" s="2"/>
+      <c r="E18" s="2" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B19" s="3">
@@ -1353,10 +1491,12 @@
         <v>10</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
+      <c r="E19" s="2" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B20" s="3">
@@ -1426,7 +1566,9 @@
         <v>8</v>
       </c>
       <c r="D28" s="12"/>
-      <c r="E28" s="1"/>
+      <c r="E28" s="1">
+        <v>0.4</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1450,7 +1592,7 @@
   <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1470,19 +1612,19 @@
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="H1" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
       <c r="H2" s="3"/>
       <c r="I2" s="19" t="s">
         <v>30</v>
@@ -1495,31 +1637,39 @@
       <c r="H3" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
+      <c r="I3" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" s="17">
+        <v>232</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C4" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="32" t="s">
+      <c r="D4" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="32"/>
+      <c r="E4" s="33"/>
       <c r="H4" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
+      <c r="I4" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" s="3">
+        <v>232</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C5" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="33" t="s">
+      <c r="D5" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="34"/>
+      <c r="E5" s="35"/>
       <c r="H5" s="17" t="s">
         <v>22</v>
       </c>
@@ -1531,15 +1681,19 @@
       <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
+      <c r="D6" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="24"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
+      <c r="D7" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="E7" s="24"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B9" s="10" t="s">
@@ -1559,36 +1713,58 @@
       <c r="B10" s="3">
         <v>1</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
+      <c r="C10" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B11" s="3">
         <f>B10+1</f>
         <v>2</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C11" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B12" s="3">
         <f t="shared" ref="B12:B30" si="0">B11+1</f>
         <v>3</v>
       </c>
-      <c r="C12" s="1"/>
+      <c r="C12" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="D12" s="1"/>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E12" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B13" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
+      <c r="C13" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B14" s="3">
@@ -1748,7 +1924,9 @@
         <v>8</v>
       </c>
       <c r="D32" s="12"/>
-      <c r="E32" s="1"/>
+      <c r="E32" s="1">
+        <v>0.5</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1771,8 +1949,8 @@
   </sheetPr>
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1793,19 +1971,19 @@
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="H1" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
       <c r="H2" s="3"/>
       <c r="I2" s="19" t="s">
         <v>30</v>
@@ -1818,27 +1996,37 @@
       <c r="H3" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
+      <c r="I3" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="J3" s="17">
+        <v>232</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C4" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
       <c r="H4" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
+      <c r="I4" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="J4" s="3">
+        <v>232</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C5" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
+      <c r="D5" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="24"/>
       <c r="H5" s="17" t="s">
         <v>22</v>
       </c>
@@ -1850,8 +2038,10 @@
       <c r="C6" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
+      <c r="D6" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="E6" s="24"/>
       <c r="F6" s="20"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -1871,84 +2061,144 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B10" s="3">
         <v>1</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
+      <c r="C10" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B11" s="3">
         <f>B10+1</f>
         <v>2</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C11" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B12" s="3">
         <f t="shared" ref="B12:B30" si="0">B11+1</f>
         <v>3</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C12" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="2"/>
+      <c r="C13" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F13" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="B14" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="2"/>
+      <c r="C14" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F14" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="B15" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C15" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
       <c r="B16" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C16" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
+      <c r="C17" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F17" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B18" s="3">
@@ -2081,12 +2331,14 @@
       <c r="F30" s="2"/>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C32" s="35" t="s">
+      <c r="C32" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="D32" s="36"/>
-      <c r="E32" s="36"/>
-      <c r="F32" s="18"/>
+      <c r="D32" s="37"/>
+      <c r="E32" s="37"/>
+      <c r="F32" s="18">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="35" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F35" s="21"/>
